--- a/app/dataconfig/interface.xlsx
+++ b/app/dataconfig/interface.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31905" windowHeight="1905"/>
+    <workbookView windowWidth="28305" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>id</t>
   </si>
@@ -72,7 +72,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>write</t>
+    <t>no</t>
   </si>
   <si>
     <t>login</t>
@@ -81,6 +81,9 @@
     <t>"msg": "登录成功"</t>
   </si>
   <si>
+    <t>update odi_order set total_amount=0.03 where order_no ='M200402351953736'</t>
+  </si>
+  <si>
     <t>test_case02</t>
   </si>
   <si>
@@ -93,8 +96,7 @@
     <t>get</t>
   </si>
   <si>
-    <t xml:space="preserve">favorite_list
-</t>
+    <t>favorite_list</t>
   </si>
   <si>
     <t>"code": "1"</t>
@@ -105,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -147,6 +149,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -156,96 +232,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,14 +246,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -284,25 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,96 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,55 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +477,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +528,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -513,6 +548,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,50 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,7 +597,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,7 +606,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,112 +618,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -798,11 +800,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1087,22 +1084,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
@@ -1110,7 +1108,7 @@
     <col min="9" max="9" width="26.125" customWidth="1"/>
     <col min="10" max="10" width="44.5" customWidth="1"/>
     <col min="11" max="11" width="42.25" customWidth="1"/>
-    <col min="12" max="12" width="65.5" customWidth="1"/>
+    <col min="12" max="12" width="73.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
@@ -1154,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1179,31 +1177,34 @@
       <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" ht="27" spans="1:11">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1235,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/dataconfig/interface.xlsx
+++ b/app/dataconfig/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>"msg": "登录成功"</t>
-  </si>
-  <si>
-    <t>update odi_order set total_amount=0.03 where order_no ='M200402351953736'</t>
   </si>
   <si>
     <t>test_case02</t>
@@ -108,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,23 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +221,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -238,16 +236,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,22 +269,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,11 +477,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,47 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,16 +594,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,112 +615,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1152,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1176,35 +1173,32 @@
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
